--- a/Outputs/PtX_demand_SK.xlsx
+++ b/Outputs/PtX_demand_SK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,53 +493,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2030</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0.002929705966470399</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0001895259569106624</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>7.541896700914514e-11</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.787657911563706e-05</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2030</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.002929705966470399</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>3.699259365293863e-05</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0001895259569106624</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>7.541896700914514e-11</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.787657911563706e-05</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -547,7 +549,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>3.699259365293863e-05</v>
+        <v>0.006592284555037041</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -560,16 +562,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2030</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0.006592284555037041</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -589,18 +589,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.0005500310501749323</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.470281442104808e-05</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1.939025248945784e-05</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -608,24 +614,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.0005500310501749323</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6.470281442104808e-05</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>1.939025248945784e-05</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,17 +634,27 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.003515587079057731</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.319298592853771e-05</v>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.0030691416041586</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0001421047628064</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.395552156904465e-05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -652,28 +662,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.003515587079057731</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.319298592853771e-05</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.002119495838650942</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>0.0030691416041586</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0001421047628064</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7.395552156904465e-05</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -682,7 +684,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.002119495838650942</v>
+        <v>0.00050465872964277</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -694,74 +696,92 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0.002929705966470399</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.00662927714868998</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.00050465872964277</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.003174185618468644</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.003769815850389441</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.319298592853771e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.541896700914514e-11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.003166408435763695</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001421047628064</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7.395552156904465e-05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2040</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0.01184719247196035</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.0009064259029022922</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>6.313400547017451e-09</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0001218731793767976</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2040</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.01184719247196035</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>3.600310459361152e-05</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.0009064259029022922</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>6.313400547017451e-09</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0001218731793767976</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -769,7 +789,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>3.600310459361152e-05</v>
+        <v>0.006415952138219271</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -782,28 +802,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0.006415952138219271</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>3.389392637646076e-10</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>4.145795003056843e-11</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -811,14 +833,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.002078155952576548</v>
+      </c>
       <c r="F16" t="n">
-        <v>3.389392637646076e-10</v>
+        <v>7.782332623397337e-05</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>4.145795003056843e-11</v>
+        <v>2.861929870480182e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -826,7 +850,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -834,24 +858,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.002078155952576548</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7.782332623397337e-05</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>2.861929870480182e-05</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -860,17 +878,27 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.001575216502142095</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7.041169281899976e-05</v>
+      </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.0020866582874543</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0001726342234394</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9.71191615333176e-05</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -878,28 +906,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.001575216502142095</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7.041169281899976e-05</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.001954838563554633</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>0.0020866582874543</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0001726342234394</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9.71191615333176e-05</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -908,7 +928,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.001954838563554633</v>
+        <v>0.001946691550604262</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -920,74 +940,92 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0.01184719247196035</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.006451955242812882</v>
+      </c>
       <c r="E21" t="n">
-        <v>0.001946691550604262</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.005979686066735442</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.002559466070217624</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.041169281899976e-05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6.313400547017451e-09</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.00223715080699385</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0001726342234394</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9.71191615333176e-05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2050</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>0.02988984706647802</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0012593296311043</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1.07007053929174e-08</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0001962837933709781</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2050</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.02988984706647802</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>3.516486749315624e-05</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0012593296311043</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>1.07007053929174e-08</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0001962837933709781</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -995,7 +1033,7 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>3.516486749315624e-05</v>
+        <v>0.006266573656065958</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1008,28 +1046,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2050</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0.006266573656065958</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>3.774845040325875e-09</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1.34907610501367e-09</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1037,14 +1077,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.0049398672685842</v>
+      </c>
       <c r="F26" t="n">
-        <v>3.774845040325875e-09</v>
+        <v>1.413917275720091e-05</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>1.34907610501367e-09</v>
+        <v>7.875353694012995e-06</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1052,7 +1094,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1060,24 +1102,28 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.0049398672685842</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>1.413917275720091e-05</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>7.20865110884525e-12</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.592882074158322e-12</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>7.875353694012995e-06</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>3.255381781524249e-11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.182341707056067e-12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.636069195368075e-11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1087,26 +1133,26 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>7.20865110884525e-12</v>
+        <v>0.0001622105500796102</v>
       </c>
       <c r="G28" t="n">
-        <v>2.592882074158322e-12</v>
+        <v>0.0001258133327862</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>3.255381781524249e-11</v>
+        <v>0.0005427956238868</v>
       </c>
       <c r="J28" t="n">
-        <v>1.182341707056067e-12</v>
+        <v>0.0002220349488531</v>
       </c>
       <c r="K28" t="n">
-        <v>1.636069195368075e-11</v>
+        <v>0.0001318972613522</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1114,28 +1160,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.0001622105500796102</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0001258133327862</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.001821783139629031</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>0.0005427956238868</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0002220349488531</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0001318972613522</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1144,7 +1182,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.001821783139629031</v>
+        <v>0.004708618200607745</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1156,23 +1194,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0.02988984706647802</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.006301738523559114</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.004708618200607745</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.01147026860882098</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.001435683135994803</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0001258133353790821</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.07007053929174e-08</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0007469561525817139</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0002220349500354417</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0001318972777128919</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_SK.xlsx
+++ b/Outputs/PtX_demand_SK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,7 +606,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -615,17 +615,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0007299738205062158</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>6.639032630352597e-05</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,27 +638,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.003515587079057731</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.319298592853771e-05</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>0.0030691416041586</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0001421047628064</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.395552156904465e-05</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -662,20 +656,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.002119495838650942</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.003515587079057731</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.319298592853771e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.000206353572093</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0030691416041586</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0001421047628064</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7.395552156904465e-05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -683,174 +687,178 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.00050465872964277</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.0338815414336028</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0003041955337624</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0018859603843858</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0198141550304741</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0008601604282301</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0005287307690825999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.002929705966470399</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.00662927714868998</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.003174185618468644</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.003769815850389441</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4.319298592853771e-05</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7.541896700914514e-11</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.003166408435763695</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0001421047628064</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7.395552156904465e-05</v>
-      </c>
+        <v>0.002119495838650942</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01184719247196035</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0009064259029022922</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.00050465872964277</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>6.313400547017451e-09</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0001218731793767976</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>2030</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.002929705966470399</v>
+      </c>
       <c r="D13" t="n">
-        <v>3.600310459361152e-05</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>0.00662927714868998</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.003174185618468644</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.03838133110449846</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0003473885196909377</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.002092314031897767</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.02304695379254132</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0010022651910365</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0006026862906516446</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0.006415952138219271</v>
-      </c>
+      <c r="C14" t="n">
+        <v>0.01184719247196035</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.0009064259029022922</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>6.313400547017451e-09</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0001218731793767976</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>3.600310459361152e-05</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>3.389392637646076e-10</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>4.145795003056843e-11</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2040</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.002078155952576548</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7.782332623397337e-05</v>
-      </c>
+      <c r="D16" t="n">
+        <v>0.006415952138219271</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>2.861929870480182e-05</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -859,17 +867,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>3.389392637646076e-10</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>4.145795003056843e-11</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -877,28 +889,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.002078155952576548</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.001575216502142095</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7.041169281899976e-05</v>
-      </c>
+        <v>7.782332623397337e-05</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0020866582874543</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0001726342234394</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9.71191615333176e-05</v>
-      </c>
+        <v>2.861929870480182e-05</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -906,20 +914,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.001954838563554633</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.000401207734482028</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>7.161271742331518e-05</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -927,9 +937,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.001946691550604262</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -940,32 +948,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.01184719247196035</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.006451955242812882</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.005979686066735442</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.002559466070217624</v>
+        <v>0.001575216502142095</v>
       </c>
       <c r="G21" t="n">
         <v>7.041169281899976e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>6.313400547017451e-09</v>
+        <v>0.0002512059842517</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00223715080699385</v>
+        <v>0.0020866582874543</v>
       </c>
       <c r="J21" t="n">
         <v>0.0001726342234394</v>
@@ -977,44 +979,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.02988984706647802</v>
-      </c>
+        <v>2040</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0012593296311043</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.0093960001554407</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0003270271112</v>
+      </c>
       <c r="H22" t="n">
-        <v>1.07007053929174e-08</v>
+        <v>0.0017781082385071</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001962837933709781</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.0091304669370087</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0007633154257556</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0004665094298364</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>3.516486749315624e-05</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.001954838563554633</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1025,17 +1031,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>0.006266573656065958</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.001946691550604262</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1046,47 +1052,63 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>2040</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01184719247196035</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.006451955242812882</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.005979686066735442</v>
+      </c>
       <c r="F25" t="n">
-        <v>3.774845040325875e-09</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.01235667396014035</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0003974388040189998</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.002029320536159347</v>
+      </c>
       <c r="I25" t="n">
-        <v>1.34907610501367e-09</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.01143923046142586</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.000935949649195</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0005636285913697176</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2050</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0.02988984706647802</v>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.0049398672685842</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>1.413917275720091e-05</v>
+        <v>0.0012593296311043</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1.07007053929174e-08</v>
+      </c>
       <c r="I26" t="n">
-        <v>7.875353694012995e-06</v>
+        <v>0.0001962837933709781</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1094,65 +1116,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2050</v>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>3.516486749315624e-05</v>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>7.20865110884525e-12</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2.592882074158322e-12</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>3.255381781524249e-11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.182341707056067e-12</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.636069195368075e-11</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2050</v>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0.006266573656065958</v>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.0001622105500796102</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0001258133327862</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>0.0005427956238868</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0002220349488531</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0001318972613522</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1160,20 +1166,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.001821783139629031</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>3.774845040325875e-09</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1.34907610501367e-09</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1182,50 +1190,212 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.004708618200607745</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.0049398672685842</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.413917275720091e-05</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>7.875353694012995e-06</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>2.82976979993906e-05</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>2.493561741812274e-05</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>7.20865110884525e-12</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.592882074158322e-12</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9.678283984348044e-12</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.255381781524249e-11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.182341707056067e-12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.636069195368075e-11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.0001622105500796102</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0001258133327862</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.000329025716349</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0005427956238868</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0002220349488531</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0001318972613522</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0004874016895610458</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0002949646045886</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0016125152633203</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0015959837096004</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0006570244378383</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0003828919678056</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.001821783139629031</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.004708618200607745</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.02988984706647802</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>0.006301738523559114</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.01147026860882098</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.001435683135994803</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0001258133353790821</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1.07007053929174e-08</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.0007469561525817139</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0002220349500354417</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.0001318972777128919</v>
+      <c r="F37" t="n">
+        <v>0.001951382523555239</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.000420777939967682</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.001941551690052977</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.002367875479600236</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0008790593878737417</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.000514789245518492</v>
       </c>
     </row>
   </sheetData>
